--- a/doc/task07/V1.0_Sprints_Planung.xlsx
+++ b/doc/task07/V1.0_Sprints_Planung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_37f0\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1199" documentId="8_{0C5548F3-F90D-45A1-9DCC-E63BCEC85862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE603C22-F995-4362-A249-78768819F03F}"/>
+  <xr:revisionPtr revIDLastSave="1237" documentId="8_{0C5548F3-F90D-45A1-9DCC-E63BCEC85862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59EFB3A1-CD63-4652-BDA7-F641C4E52450}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="2" activeTab="3" xr2:uid="{F1336D25-399B-4D26-8B3B-4DF3416C9664}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="3" xr2:uid="{F1336D25-399B-4D26-8B3B-4DF3416C9664}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint 2" sheetId="4" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +59,9 @@
     <t>Ist-Aufwand</t>
   </si>
   <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -72,6 +77,9 @@
     <t>10h</t>
   </si>
   <si>
+    <t>0h</t>
+  </si>
+  <si>
     <t>Offen</t>
   </si>
   <si>
@@ -84,6 +92,9 @@
     <t>Hoch</t>
   </si>
   <si>
+    <t>Abgeschlossen</t>
+  </si>
+  <si>
     <t>Neuer Tagebucheintrag erstellen</t>
   </si>
   <si>
@@ -93,6 +104,9 @@
     <t>40h</t>
   </si>
   <si>
+    <t>60h</t>
+  </si>
+  <si>
     <t>Tagebuchverwaltung</t>
   </si>
   <si>
@@ -102,6 +116,12 @@
     <t>20h</t>
   </si>
   <si>
+    <t>25h</t>
+  </si>
+  <si>
+    <t>Einträge können nicht durchsucht werden</t>
+  </si>
+  <si>
     <t>Kontakt aufnehmen</t>
   </si>
   <si>
@@ -114,24 +134,39 @@
     <t>30h</t>
   </si>
   <si>
+    <t>Verfügbarkeiten werden nicht angezeigt</t>
+  </si>
+  <si>
     <t>Kontaktverwaltung</t>
   </si>
   <si>
     <t>Nach den Kontakten suchen und löschen, wenn man es nicht mehr braucht.</t>
   </si>
   <si>
+    <t>Kontakte können nicht durchsucht werden</t>
+  </si>
+  <si>
     <t>Übungen machen</t>
   </si>
   <si>
     <t>Der Patient kann seine Übungsliste aufrufen und eine Übung mit kurzer Beschreibung aussuchen. Nachdem er diese gemacht hat, kann er eine Bewertung abgeben wie sehr ihm diese Übung in diesem Moment geholfen hat.</t>
   </si>
   <si>
+    <t>50h</t>
+  </si>
+  <si>
     <t>Übungsverwaltung</t>
   </si>
   <si>
     <t>Nach den Übungen suchen und diese auch löschen können.</t>
   </si>
   <si>
+    <t>180h</t>
+  </si>
+  <si>
+    <t>210h</t>
+  </si>
+  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -162,9 +197,6 @@
     <t>Floriana</t>
   </si>
   <si>
-    <t>Abgeschlossen</t>
-  </si>
-  <si>
     <t>Verlinkung</t>
   </si>
   <si>
@@ -285,15 +317,15 @@
     <t>Service</t>
   </si>
   <si>
+    <t>Kontakt hinzufügen</t>
+  </si>
+  <si>
+    <t>Neuer Kontakt erstellen, welcher in DB gespeichert wir</t>
+  </si>
+  <si>
     <t>In Bearbeitung</t>
   </si>
   <si>
-    <t>Kontakt hinzufügen</t>
-  </si>
-  <si>
-    <t>Neuer Kontakt erstellen, welcher in DB gespeichert wir</t>
-  </si>
-  <si>
     <t>Kontakt löschen</t>
   </si>
   <si>
@@ -393,6 +425,9 @@
     <t>Recherche um Übungen zu definieren</t>
   </si>
   <si>
+    <t>Internet</t>
+  </si>
+  <si>
     <t>Modellklassen</t>
   </si>
   <si>
@@ -414,28 +449,79 @@
     <t>DiaryPresenter implementieren</t>
   </si>
   <si>
+    <t>Neuer Diary Eintrag</t>
+  </si>
+  <si>
+    <t>Nach dem Erstellen eines Eintrages über das GUI, wird der Eintrag im DiaryView angezeigt</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Diary Eintrag anzeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle Einträge werden im Gui aufgeistet.Wenn ein Eintrag angewält wird, wird der richtige Eintrag im GUI angezeigt. </t>
+  </si>
+  <si>
+    <t>Contact anzeigen</t>
+  </si>
+  <si>
+    <t>Wenn ein Kontakt angewält wird, wird der richtige Kontakt im GUI angezeigt.</t>
+  </si>
+  <si>
+    <t>Neuer Contact erstellen</t>
+  </si>
+  <si>
+    <t>Nach dem Erstellen eines Kontakts über das GUI, wird der Kontakt im ContactView angezeigt.</t>
+  </si>
+  <si>
+    <t>City für Kontakt</t>
+  </si>
+  <si>
+    <t>City wird dem richtigen Kontakt zugewiesen</t>
+  </si>
+  <si>
+    <t>Unterschied Arten Kontakts</t>
+  </si>
+  <si>
+    <t>Es wird zwischen normalen und weiterführenden Kontakten unterschieden</t>
+  </si>
+  <si>
+    <t>GUI &amp; Datenbank</t>
+  </si>
+  <si>
+    <t>ArrayList für Contact</t>
+  </si>
+  <si>
+    <t>Ermöglicht das Abrufen aller Kontakte</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Exercise View überarbeiten</t>
+  </si>
+  <si>
+    <t>Die Exercises werden aus der Datenbank ausgelesen und in Form von Buttons dargestellt.</t>
+  </si>
+  <si>
     <t>ExercisePresenter</t>
   </si>
   <si>
     <t>ExercisePresenter implementieren</t>
   </si>
   <si>
-    <t>ArrayList für Contact</t>
-  </si>
-  <si>
-    <t>Ermöglicht das Abrufen aller Kontakte</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
     <t>Excercise anzeigen</t>
   </si>
   <si>
     <t>Wenn eine Übung angewält wird, wird die richtige Übung angezeigt.</t>
   </si>
   <si>
-    <t>GUI</t>
+    <t>Exercise in Datenbank</t>
+  </si>
+  <si>
+    <t>Die Exercises müssen in der Datenbank abgespeichert werden damit sie im Code aufgerufen werden können.</t>
   </si>
   <si>
     <t>Rating</t>
@@ -444,42 +530,6 @@
     <t>Rating kann im Gui angewählt werden und wird für die richtige Übung angezeigt.</t>
   </si>
   <si>
-    <t>Neuer Diary Eintrag</t>
-  </si>
-  <si>
-    <t>Nach dem Erstellen eines Eintrages über das GUI, wird der Eintrag im DiaryView angezeigt</t>
-  </si>
-  <si>
-    <t>Diary Eintrag anzeigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alle Einträge werden im Gui aufgeistet.Wenn ein Eintrag angewält wird, wird der richtige Eintrag im GUI angezeigt. </t>
-  </si>
-  <si>
-    <t>Neuer Contact erstellen</t>
-  </si>
-  <si>
-    <t>Nach dem Erstellen eines Kontakts über das GUI, wird der Kontakt im ContactView angezeigt.</t>
-  </si>
-  <si>
-    <t>Contact anzeigen</t>
-  </si>
-  <si>
-    <t>Wenn ein Kontakt angewält wird, wird der richtige Kontakt im GUI angezeigt.</t>
-  </si>
-  <si>
-    <t>Exercise in Datenbank</t>
-  </si>
-  <si>
-    <t>Die Exercises müssen in der Datenbank abgespeichert werden damit sie im Code aufgerufen werden können.</t>
-  </si>
-  <si>
-    <t>Exercise View überarbeiten</t>
-  </si>
-  <si>
-    <t>Die Exercises werden aus der Datenbank ausgelesen und in Form von Buttons dargestellt.</t>
-  </si>
-  <si>
     <t>Durchschnitt Ratings berechnen</t>
   </si>
   <si>
@@ -490,24 +540,6 @@
   </si>
   <si>
     <t>Verantwortung für UnitTesting. Codieren muss jedes Team Mitglied.</t>
-  </si>
-  <si>
-    <t>City für Kontakt</t>
-  </si>
-  <si>
-    <t>City wird dem richtigen Kontakt zugewiesen</t>
-  </si>
-  <si>
-    <t>Unterschied Arten Kontakts</t>
-  </si>
-  <si>
-    <t>Es wird zwischen normalen und weiterführenden Kontakten unterschieden</t>
-  </si>
-  <si>
-    <t>GUI &amp; Datenbank</t>
-  </si>
-  <si>
-    <t>Internet</t>
   </si>
 </sst>
 </file>
@@ -564,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -874,11 +906,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1040,6 +1098,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,7 +1123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1355,13 +1419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D15294F-E91C-4E70-BDC7-B708814C482E}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -1370,10 +1434,11 @@
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1395,187 +1460,246 @@
       <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="31.5">
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34.5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="31.5">
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34.5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="31.5">
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="31.5">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="60"/>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="31.5">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34.5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="47.25">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="69">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickTop="1"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1589,7 +1713,7 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1611,22 +1735,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>3</v>
@@ -1641,7 +1765,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75">
@@ -1652,22 +1776,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="22">
         <v>4</v>
@@ -1679,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75">
@@ -1690,22 +1814,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="22">
         <v>2</v>
@@ -1717,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
@@ -1728,22 +1852,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="22">
         <v>2</v>
@@ -1755,7 +1879,7 @@
         <v>0.5</v>
       </c>
       <c r="L4" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75">
@@ -1766,22 +1890,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="21">
         <v>2</v>
@@ -1793,7 +1917,7 @@
         <v>0.25</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="31.5">
@@ -1804,22 +1928,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="56">
         <v>4</v>
@@ -1831,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="31.5">
@@ -1842,22 +1966,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" s="22">
         <v>4</v>
@@ -1869,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75">
@@ -1880,22 +2004,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" s="22">
         <v>2</v>
@@ -1907,7 +2031,7 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
@@ -1918,22 +2042,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" s="22">
         <v>4</v>
@@ -1945,7 +2069,7 @@
         <v>1.5</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5">
@@ -1956,22 +2080,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" s="22">
         <v>4</v>
@@ -1983,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
@@ -1994,22 +2118,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="F11" s="22" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="22">
         <v>4</v>
@@ -2021,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75">
@@ -2032,22 +2156,22 @@
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="21">
         <v>4</v>
@@ -2059,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75">
@@ -2070,22 +2194,22 @@
         <v>1</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="50" t="s">
-        <v>41</v>
-      </c>
       <c r="G13" s="50" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I13" s="50">
         <v>4</v>
@@ -2097,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75">
@@ -2108,22 +2232,22 @@
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I14" s="21">
         <v>2</v>
@@ -2135,7 +2259,7 @@
         <v>0.5</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75">
@@ -2146,22 +2270,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I15" s="22">
         <v>4</v>
@@ -2173,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
@@ -2184,22 +2308,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" s="22">
         <v>2</v>
@@ -2211,7 +2335,7 @@
         <v>0.5</v>
       </c>
       <c r="L16" s="59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75">
@@ -2222,22 +2346,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I17" s="21">
         <v>4</v>
@@ -2249,7 +2373,7 @@
         <v>4.5</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="31.5">
@@ -2260,34 +2384,34 @@
         <v>1</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I18" s="21">
         <v>2</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K18" s="21">
         <v>0.5</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75">
@@ -2313,11 +2437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B8809-68CD-4DE3-8896-D73E208CA2D7}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2339,22 +2463,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>3</v>
@@ -2369,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="35" customFormat="1" ht="15.75">
@@ -2380,22 +2504,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="37">
         <v>2</v>
@@ -2407,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="35" customFormat="1" ht="15.75">
@@ -2418,22 +2542,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="22">
         <v>4</v>
@@ -2445,7 +2569,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="35" customFormat="1" ht="15.75">
@@ -2456,22 +2580,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="21">
         <v>4</v>
@@ -2483,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75">
@@ -2494,22 +2618,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="22">
         <v>4</v>
@@ -2521,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75">
@@ -2532,22 +2656,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="22">
         <v>4</v>
@@ -2559,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75">
@@ -2570,22 +2694,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" s="22">
         <v>4</v>
@@ -2597,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75">
@@ -2608,22 +2732,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" s="22">
         <v>4</v>
@@ -2635,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75">
@@ -2646,22 +2770,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" s="22">
         <v>4</v>
@@ -2673,7 +2797,7 @@
         <v>6</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75">
@@ -2684,22 +2808,22 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" s="22">
         <v>4</v>
@@ -2711,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
@@ -2722,22 +2846,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I11" s="22">
         <v>4</v>
@@ -2749,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75">
@@ -2760,22 +2884,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="21">
         <v>4</v>
@@ -2787,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75">
@@ -2798,22 +2922,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I13" s="22">
         <v>4</v>
@@ -2825,7 +2949,7 @@
         <v>6</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75">
@@ -2836,22 +2960,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I14" s="22">
         <v>4</v>
@@ -2863,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75">
@@ -2874,22 +2998,22 @@
         <v>2</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I15" s="22">
         <v>4</v>
@@ -2901,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
@@ -2912,22 +3036,22 @@
         <v>2</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" s="21">
         <v>4</v>
@@ -2939,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75">
@@ -2950,22 +3074,22 @@
         <v>2</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="G17" s="22" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I17" s="22">
         <v>4</v>
@@ -2977,7 +3101,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
@@ -2988,22 +3112,22 @@
         <v>2</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I18" s="21">
         <v>4</v>
@@ -3015,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75">
@@ -3026,22 +3150,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I19" s="22">
         <v>4</v>
@@ -3053,7 +3177,7 @@
         <v>4</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75">
@@ -3064,22 +3188,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I20" s="22">
         <v>4</v>
@@ -3091,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75">
@@ -3102,22 +3226,22 @@
         <v>2</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" s="21">
         <v>4</v>
@@ -3129,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75">
@@ -3140,22 +3264,22 @@
         <v>2</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I22" s="22">
         <v>4</v>
@@ -3167,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.95" customHeight="1">
@@ -3178,22 +3302,22 @@
         <v>2</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I23" s="21">
         <v>2</v>
@@ -3205,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75">
@@ -3231,11 +3355,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FE8C60-0D75-41EB-A243-16C9C1AFA9C9}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="61" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="61" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3257,22 +3381,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>3</v>
@@ -3287,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3298,22 +3422,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="28">
         <v>4</v>
@@ -3325,7 +3449,7 @@
         <v>5.5</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5">
@@ -3336,22 +3460,22 @@
         <v>3</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="28">
         <v>4</v>
@@ -3363,7 +3487,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="47.25">
@@ -3374,22 +3498,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="10">
         <v>2</v>
@@ -3401,7 +3525,7 @@
         <v>1.5</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3412,22 +3536,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="28">
         <v>4</v>
@@ -3439,7 +3563,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="31.5">
@@ -3456,16 +3580,16 @@
         <v>143</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="28">
         <v>2</v>
@@ -3477,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="31.5">
@@ -3488,22 +3612,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" s="28">
         <v>2</v>
@@ -3515,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3526,22 +3650,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" s="28">
         <v>2</v>
@@ -3553,7 +3677,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
@@ -3564,22 +3688,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I9" s="28">
         <v>2</v>
@@ -3591,7 +3715,7 @@
         <v>6</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3602,22 +3726,22 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" s="10">
         <v>2</v>
@@ -3629,7 +3753,7 @@
         <v>1.5</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="31.5">
@@ -3640,22 +3764,22 @@
         <v>3</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="28">
         <v>2</v>
@@ -3667,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3678,22 +3802,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="28">
         <v>4</v>
@@ -3705,7 +3829,7 @@
         <v>2.5</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5">
@@ -3716,22 +3840,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I13" s="28">
         <v>2</v>
@@ -3743,7 +3867,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5">
@@ -3754,22 +3878,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I14" s="32">
         <v>2</v>
@@ -3781,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="31.5">
@@ -3792,22 +3916,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I15" s="28">
         <v>2</v>
@@ -3819,7 +3943,7 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="31.5">
@@ -3830,22 +3954,22 @@
         <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I16" s="10">
         <v>2</v>
@@ -3857,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="31.5">
@@ -3868,22 +3992,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I17" s="40">
         <v>2</v>
@@ -3895,7 +4019,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:12">
